--- a/Project5268_P. D. Taylor(2000).xlsx
+++ b/Project5268_P. D. Taylor(2000).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pjjg18\GitHub\neotrans\matrices\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D883FD16-2A3A-4B38-BC13-93584EAD00A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C88252EB-2E79-4234-9E8A-284CD3B3AF08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="7080" windowWidth="15870" windowHeight="18585" xr2:uid="{82CB97C3-56FC-3A46-9CD0-A600CD051AFF}"/>
+    <workbookView xWindow="16455" yWindow="390" windowWidth="15945" windowHeight="18375" xr2:uid="{82CB97C3-56FC-3A46-9CD0-A600CD051AFF}"/>
   </bookViews>
   <sheets>
     <sheet name="Project5268" sheetId="1" r:id="rId1"/>
@@ -277,55 +277,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>31357</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>31357</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>821580</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>31357</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2D7C7982-5CEF-7AEA-87CD-C27817933049}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10504937" y="313579"/>
-          <a:ext cx="10762075" cy="6726297"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -647,9 +598,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EC19199-64C5-C04F-8A29-EA431CBC1322}">
   <dimension ref="A1:C47"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="75" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1174,6 +1123,5 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>